--- a/MyRessources/tabSynthes/tab_syntese.xlsx
+++ b/MyRessources/tabSynthes/tab_syntese.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoelchicheportiche/Desktop/portfolio/jackson-master/MyRessources/tabSynthes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoelchicheportiche/Desktop/E4-Portfolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C67C4C-3F9B-EC4B-B750-46B00BC63C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA0B36B-EC34-284D-9448-0825E031C4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -86,9 +86,6 @@
 ▸Développer son projet professionnel</t>
   </si>
   <si>
-    <t>Centre de formation :</t>
-  </si>
-  <si>
     <t>▢ SISR</t>
   </si>
   <si>
@@ -104,12 +101,6 @@
 (intitulé et liste des documents et productions associés)</t>
   </si>
   <si>
-    <t xml:space="preserve">N° candidat : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOM et prénom : </t>
-  </si>
-  <si>
     <t>Période (sous la forme du JJ/MM/AA au JJ/MM/AA)</t>
   </si>
   <si>
@@ -119,10 +110,58 @@
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
   </si>
   <si>
-    <t>Adresse URL du portfolio :</t>
-  </si>
-  <si>
     <t>SESSION 2023</t>
+  </si>
+  <si>
+    <t>Centre de formation : ORT Daniel Mayer Montreuil</t>
+  </si>
+  <si>
+    <t>NOM et prénom : CHICHEPORTICHE YOEL</t>
+  </si>
+  <si>
+    <t>Adresse URL du portfolio : https://ychichpo.github.io/yoel_ch/</t>
+  </si>
+  <si>
+    <t>N° candidat :  02150249041</t>
+  </si>
+  <si>
+    <t>HELPORT Version JAVA</t>
+  </si>
+  <si>
+    <t>HELPORT Version Web</t>
+  </si>
+  <si>
+    <t>Portfolio</t>
+  </si>
+  <si>
+    <t>Audit de code</t>
+  </si>
+  <si>
+    <t>GLPI</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Projet pompiers</t>
+  </si>
+  <si>
+    <t>Projet Hôtelerie</t>
+  </si>
+  <si>
+    <t>Linkledin / Trailhead</t>
+  </si>
+  <si>
+    <t>Projet Bâtiments</t>
+  </si>
+  <si>
+    <t>Projet API</t>
+  </si>
+  <si>
+    <t>Projet Evenementiels</t>
+  </si>
+  <si>
+    <t>Projet formations</t>
   </si>
 </sst>
 </file>
@@ -132,7 +171,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -194,16 +233,43 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -589,12 +655,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -659,15 +740,51 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -699,30 +816,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1035,8 +1128,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="87" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1048,84 +1141,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:43" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:43" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-    </row>
-    <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="43"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="34"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
+      <c r="A4" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="47"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="43" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>0</v>
@@ -1147,8 +1240,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1204,16 +1297,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A8" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
+      <c r="A8" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1251,14 +1344,22 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="25">
+        <v>44958</v>
+      </c>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
+      <c r="G9" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1296,13 +1397,25 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="A10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="25">
+        <v>45170</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="F10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="H10" s="18"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -1341,13 +1454,25 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="A11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="25">
+        <v>45170</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="F11" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="H11" s="18"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -1386,10 +1511,18 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="A12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="25">
+        <v>45261</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
@@ -1431,10 +1564,16 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="A13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="25">
+        <v>44896</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="22"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
@@ -1701,16 +1840,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A19" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30"/>
+      <c r="A19" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1748,14 +1887,17 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
+      <c r="A20" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="B20" s="10"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
+      <c r="H20" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1793,13 +1935,25 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
+      <c r="A21" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="C21" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="H21" s="18"/>
       <c r="I21"/>
       <c r="J21"/>
@@ -1838,14 +1992,24 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
+      <c r="A22" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="C22" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
+      <c r="H22" s="24"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -1883,13 +2047,20 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
+      <c r="A23" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="B23" s="10"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
+      <c r="C23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="23"/>
       <c r="H23" s="18"/>
       <c r="I23"/>
       <c r="J23"/>
@@ -1928,7 +2099,6 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
       <c r="B24" s="10"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -2063,16 +2233,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A27" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
+      <c r="A27" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="42"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2110,13 +2280,21 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="A28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="H28" s="18"/>
       <c r="I28"/>
       <c r="J28"/>
@@ -2155,13 +2333,23 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="11"/>
+      <c r="A29" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
+      <c r="C29" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="F29" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="H29" s="18"/>
       <c r="I29"/>
       <c r="J29"/>
@@ -2200,13 +2388,22 @@
       <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="11"/>
+      <c r="A30" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
+      <c r="C30" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="H30" s="18"/>
       <c r="I30"/>
       <c r="J30"/>
@@ -2245,13 +2442,12 @@
       <c r="AQ30"/>
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="11"/>
       <c r="B31" s="10"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
       <c r="H31" s="18"/>
       <c r="I31"/>
       <c r="J31"/>
@@ -2517,11 +2713,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2529,6 +2720,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/MyRessources/tabSynthes/tab_syntese.xlsx
+++ b/MyRessources/tabSynthes/tab_syntese.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoelchicheportiche/Desktop/E4-Portfolio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoelchicheportiche/Desktop/E4-Portfolio/Yoel_ch/MyRessources/tabSynthes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA0B36B-EC34-284D-9448-0825E031C4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F382BCAE-8F42-2348-A4EE-BCCB7A5DDB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -675,7 +675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -817,6 +817,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -834,6 +837,195 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>216092</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>549452</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>452444</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Encre 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B0C2EAB-C696-F106-4B27-BBCF5C8C4D4A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="13500000" y="1623600"/>
+            <a:ext cx="333360" cy="376200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Encre 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B0C2EAB-C696-F106-4B27-BBCF5C8C4D4A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13491000" y="1614960"/>
+              <a:ext cx="351000" cy="393840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>289892</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542252</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>464324</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="Encre 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C63AA4-8BD1-A000-CC3E-498FD2820D86}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="13573800" y="1643040"/>
+            <a:ext cx="252360" cy="368640"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Encre 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C63AA4-8BD1-A000-CC3E-498FD2820D86}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13564800" y="1634040"/>
+              <a:ext cx="270000" cy="386280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-03-16T21:29:10.390"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 24575,'63'70'0,"0"1"0,-1 0 0,1-1 0,-26-31 0,-1 0 0,24 30 0,17 19 0,-4-4 0,-25-30 0,-26-32 0,-10-10 0,4 4 0,0 0 0,-4-4 0,4 4 0,-5-5 0,-1-1 0,0 1 0,1 5 0,6 1 0,-5 1 0,10 3 0,-10-3 0,10 0 0,-9 4 0,3-10 0,-5 4 0,-1-5 0,1-1 0,-1 0 0,1 1 0,-5-1 0,-2 0 0,1-5 0,-4 4 0,4-4 0,-1 0 0,-3 4 0,8-8 0,-8 8 0,4-17 0,-5 11 0,0-12 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-03-16T21:29:17.094"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">700 0 24575,'-14'0'0,"3"11"0,-9 2 0,2 10 0,-7 6 0,-5-3 0,3 11 0,-3-11 0,11 3 0,-3-11 0,10-1 0,-5-7 0,11 1 0,-3-1 0,8 1 0,-4-1 0,5 0 0,0 0 0,0-1 0,-4 1 0,-8 1 0,0 4 0,-10 3 0,8 12 0,-9 2 0,3 6 0,-12 1 0,4 0 0,-4 0 0,5 7 0,3-13 0,3 11 0,-1-19 0,9-1 0,1-2 0,3-10 0,3 4 0,0-6 0,1 0 0,1-4 0,3 3 0,-4-4 0,5 4 0,0 1 0,-4-5 0,3 4 0,-3-4 0,-1 5 0,4-1 0,-3 1 0,-1 0 0,4 0 0,-8 0 0,4-1 0,-1 1 0,2 0 0,-1 1 0,4-1 0,-8 0 0,8 0 0,-8-5 0,8 4 0,-4-17 0,5-7 0,0-14 0,0 8 0,0 4 0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1128,8 +1320,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="87" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="87" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1938,7 +2130,9 @@
       <c r="A21" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="25">
+        <v>44927</v>
+      </c>
       <c r="C21" s="23" t="s">
         <v>32</v>
       </c>
@@ -1995,7 +2189,9 @@
       <c r="A22" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="10"/>
+      <c r="B22" s="25">
+        <v>45017</v>
+      </c>
       <c r="C22" s="23" t="s">
         <v>32</v>
       </c>
@@ -2050,7 +2246,9 @@
       <c r="A23" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="10"/>
+      <c r="B23" s="25">
+        <v>45047</v>
+      </c>
       <c r="C23" s="23" t="s">
         <v>32</v>
       </c>
@@ -2061,7 +2259,9 @@
         <v>32</v>
       </c>
       <c r="G23" s="23"/>
-      <c r="H23" s="18"/>
+      <c r="H23" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2099,6 +2299,7 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="11"/>
       <c r="B24" s="10"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -2283,6 +2484,9 @@
       <c r="A28" s="11" t="s">
         <v>38</v>
       </c>
+      <c r="B28" s="48">
+        <v>45261</v>
+      </c>
       <c r="C28" s="23" t="s">
         <v>32</v>
       </c>
@@ -2295,7 +2499,9 @@
       <c r="G28" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="18"/>
+      <c r="H28" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2336,7 +2542,9 @@
       <c r="A29" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="10"/>
+      <c r="B29" s="25">
+        <v>45292</v>
+      </c>
       <c r="C29" s="23" t="s">
         <v>32</v>
       </c>
@@ -2350,7 +2558,9 @@
       <c r="G29" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="18"/>
+      <c r="H29" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2391,7 +2601,9 @@
       <c r="A30" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="10"/>
+      <c r="B30" s="25">
+        <v>45323</v>
+      </c>
       <c r="C30" s="23" t="s">
         <v>32</v>
       </c>
@@ -2442,6 +2654,7 @@
       <c r="AQ30"/>
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="11"/>
       <c r="B31" s="10"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -2731,5 +2944,6 @@
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="48" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MyRessources/tabSynthes/tab_syntese.xlsx
+++ b/MyRessources/tabSynthes/tab_syntese.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoelchicheportiche/Desktop/E4-Portfolio/Yoel_ch/MyRessources/tabSynthes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F382BCAE-8F42-2348-A4EE-BCCB7A5DDB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF2F953-F120-C046-9292-A00253218641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>▢ SISR</t>
   </si>
   <si>
-    <t>▢ SLAM</t>
-  </si>
-  <si>
     <t xml:space="preserve">Réalisation en cours de formation
 </t>
   </si>
@@ -110,9 +107,6 @@
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
   </si>
   <si>
-    <t>SESSION 2023</t>
-  </si>
-  <si>
     <t>Centre de formation : ORT Daniel Mayer Montreuil</t>
   </si>
   <si>
@@ -162,6 +156,12 @@
   </si>
   <si>
     <t>Projet formations</t>
+  </si>
+  <si>
+    <t>SESSION 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">▢ SLAM </t>
   </si>
 </sst>
 </file>
@@ -171,7 +171,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -212,12 +212,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -229,27 +223,38 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
+      <b/>
+      <sz val="24"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="26"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="28"/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -675,7 +680,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -684,76 +689,129 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="17" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -778,48 +836,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -844,24 +860,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>216092</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76244</xdr:rowOff>
+      <xdr:colOff>569311</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>506325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>549452</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>452444</xdr:rowOff>
+      <xdr:colOff>1007229</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>18006</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="2" name="Encre 1">
+            <xdr14:cNvPr id="27" name="Encre 26">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B0C2EAB-C696-F106-4B27-BBCF5C8C4D4A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2DE86D3-807F-5557-5785-4AF022161DAE}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -869,18 +885,18 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="13500000" y="1623600"/>
-            <a:ext cx="333360" cy="376200"/>
+            <a:off x="20495173" y="1542762"/>
+            <a:ext cx="437918" cy="533520"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
       <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="2" name="Encre 1">
+            <xdr:cNvPr id="27" name="Encre 26">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B0C2EAB-C696-F106-4B27-BBCF5C8C4D4A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2DE86D3-807F-5557-5785-4AF022161DAE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -894,73 +910,8 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13491000" y="1614960"/>
-              <a:ext cx="351000" cy="393840"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>289892</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>95684</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>542252</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>464324</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="5" name="Encre 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C63AA4-8BD1-A000-CC3E-498FD2820D86}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="13573800" y="1643040"/>
-            <a:ext cx="252360" cy="368640"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Encre 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C63AA4-8BD1-A000-CC3E-498FD2820D86}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="13564800" y="1634040"/>
-              <a:ext cx="270000" cy="386280"/>
+              <a:off x="20073960" y="1551244"/>
+              <a:ext cx="427320" cy="545752"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -990,41 +941,15 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-03-16T21:29:10.390"/>
+      <inkml:timestamp xml:id="ts0" timeString="2024-03-19T22:43:11.870"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 24575,'63'70'0,"0"1"0,-1 0 0,1-1 0,-26-31 0,-1 0 0,24 30 0,17 19 0,-4-4 0,-25-30 0,-26-32 0,-10-10 0,4 4 0,0 0 0,-4-4 0,4 4 0,-5-5 0,-1-1 0,0 1 0,1 5 0,6 1 0,-5 1 0,10 3 0,-10-3 0,10 0 0,-9 4 0,3-10 0,-5 4 0,-1-5 0,1-1 0,-1 0 0,1 1 0,-5-1 0,-2 0 0,1-5 0,-4 4 0,4-4 0,-1 0 0,-3 4 0,8-8 0,-8 8 0,4-17 0,-5 11 0,0-12 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-03-16T21:29:17.094"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">700 0 24575,'-14'0'0,"3"11"0,-9 2 0,2 10 0,-7 6 0,-5-3 0,3 11 0,-3-11 0,11 3 0,-3-11 0,10-1 0,-5-7 0,11 1 0,-3-1 0,8 1 0,-4-1 0,5 0 0,0 0 0,0-1 0,-4 1 0,-8 1 0,0 4 0,-10 3 0,8 12 0,-9 2 0,3 6 0,-12 1 0,4 0 0,-4 0 0,5 7 0,3-13 0,3 11 0,-1-19 0,9-1 0,1-2 0,3-10 0,3 4 0,0-6 0,1 0 0,1-4 0,3 3 0,-4-4 0,5 4 0,0 1 0,-4-5 0,3 4 0,-3-4 0,-1 5 0,4-1 0,-3 1 0,-1 0 0,4 0 0,-8 0 0,4-1 0,-1 1 0,2 0 0,-1 1 0,4-1 0,-8 0 0,8 0 0,-8-5 0,8 4 0,-4-17 0,5-7 0,0-14 0,0 8 0,0 4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 24575,'5'15'0,"7"0"0,32 44 0,-13-35-9831,20 46 8341,-19-49 4308,-5 8-2818,4-5 1719,-12 0-1719,4-1 0,-10-6 0,10 5 6784,-10-5-6784,10 7 0,-4-1 0,5 0 0,1 0 0,-5 7 0,11 3 0,-10-2 0,13 7 0,-8-13 0,5 22 0,-3-13 0,2 7 0,-4-11 0,-8-7 0,6 0 0,-11-5 0,4 4 0,0-10 0,-3 10 0,4-4 0,0 5 0,-6-6 0,5 5 0,1-4 0,-4 5 0,8 0 0,-8 0 0,3-6 0,1 5 0,-6-10 0,5 4 0,-6-5 0,0-1 0,0 5 0,-5-4 0,4 0 0,-9-3 0,3-2 0,-4 3 0,5-3 0,-4 3 0,4-4 0,0 1 0,-4 2 0,8-7 0,-8 8 0,8-3 0,-3 4 0,-1 0 0,5-5 0,-9 4 0,9-8 0,-8 8 0,7-3 0,-3 4 0,5-4 0,-5 3 0,4-3 0,-4 4 0,5-4 0,-6 3 0,4-8 0,-7 8 0,7-8 0,-8 8 0,9-8 0,-5 3 0,5-4 0,0 0 0,-5-4 0,0-7 0,-5-1 0,0 1 0,0 6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1883">1020 42 18404,'0'10'0,"0"5"2810,-5 2-2810,-1 6 1054,-8 7-1054,-4-5 0,-9 13 551,11-13-551,-15 6 1756,16-1-1756,-10-5 0,5 5 0,-4-1 0,5-4 0,-9 12 0,9-13 0,-6 13 0,10-6 0,-9 0 0,4 6 0,0-6 0,-5 7 0,9 0 0,-10 0 0,12 0 0,-12 0 0,4 8 0,1-6 0,-5 6 0,11-8 0,-10 0 0,9 0 0,-10 0 0,13-7 0,-13 5 0,12-4 0,-12 6 0,12-7 0,-12 6 0,11-6 0,-9 0 0,10-1 0,-3-7 0,5-5 0,-1 2 0,3-8 0,3 3 0,2-17 0,5-6 0,0-13 0,0-3 0,0 11 0,0 3 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1320,136 +1245,139 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="87" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="87" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="70.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
-    <col min="3" max="8" width="18.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="38" style="19" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="39.33203125" style="19" customWidth="1"/>
+    <col min="6" max="8" width="32.83203125" style="19" customWidth="1"/>
     <col min="44" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:43" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+    </row>
+    <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" spans="1:43" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-    </row>
-    <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="34"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="53"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="47"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="25" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="8" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="26" t="s">
         <v>14</v>
       </c>
       <c r="I7"/>
@@ -1489,16 +1417,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A8" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
+      <c r="A8" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1536,21 +1464,21 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="25">
+      <c r="A9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="7">
         <v>44958</v>
       </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>32</v>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>30</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1589,26 +1517,26 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="25">
+      <c r="A10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="7">
         <v>45170</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="18"/>
+      <c r="C10" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="28"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1646,26 +1574,26 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="25">
+      <c r="A11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="7">
         <v>45170</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="18"/>
+      <c r="C11" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="28"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1703,22 +1631,22 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="25">
+      <c r="A12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="7">
         <v>45261</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
+      <c r="C12" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="28"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1756,20 +1684,20 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="25">
+      <c r="A13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="7">
         <v>44896</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
+      <c r="C13" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="28"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1807,14 +1735,14 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="28"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1852,14 +1780,14 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="28"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1897,14 +1825,14 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="28"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1942,14 +1870,14 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="28"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1987,14 +1915,14 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="28"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -2032,16 +1960,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A19" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
+      <c r="A19" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2079,16 +2007,17 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="24" t="s">
-        <v>32</v>
+      <c r="A20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="31" t="s">
+        <v>30</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -2127,28 +2056,28 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="25">
+      <c r="A21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="7">
         <v>44927</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="18"/>
+      <c r="C21" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="28"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -2186,26 +2115,26 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="25">
+      <c r="A22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="7">
         <v>45017</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="24"/>
+      <c r="C22" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="27"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -2243,24 +2172,25 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="25">
+      <c r="A23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="7">
         <v>45047</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24" t="s">
-        <v>32</v>
+      <c r="C23" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="31" t="s">
+        <v>30</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -2299,14 +2229,14 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="28"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2344,14 +2274,14 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="11"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="28"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2389,14 +2319,14 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="11"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="28"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2434,16 +2364,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A27" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="42"/>
+      <c r="A27" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2481,26 +2411,27 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="48">
+      <c r="A28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="9">
         <v>45261</v>
       </c>
-      <c r="C28" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>32</v>
+      <c r="C28" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>30</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -2539,27 +2470,27 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="25">
+      <c r="A29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="7">
         <v>45292</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>32</v>
+      <c r="C29" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>30</v>
       </c>
       <c r="I29"/>
       <c r="J29"/>
@@ -2598,25 +2529,26 @@
       <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="25">
+      <c r="A30" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="7">
         <v>45323</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="18"/>
+      <c r="C30" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="28"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2654,14 +2586,14 @@
       <c r="AQ30"/>
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="11"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="18"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="28"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2699,14 +2631,14 @@
       <c r="AQ31"/>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="11"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="28"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2744,14 +2676,14 @@
       <c r="AQ32"/>
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="11"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="18"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="28"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2789,14 +2721,14 @@
       <c r="AQ33"/>
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="29"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2833,15 +2765,15 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A35" s="5"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+    <row r="35" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -2878,54 +2810,427 @@
       <c r="AP35"/>
       <c r="AQ35"/>
     </row>
-    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="12"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="12"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+    </row>
+    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="12"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+    </row>
+    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="12"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+    </row>
+    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="12"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+    </row>
+    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="12"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+    </row>
+    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="12"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+    </row>
+    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="12"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+    </row>
+    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="12"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+    </row>
+    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="12"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+    </row>
+    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="12"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+    </row>
+    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="12"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+    </row>
+    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="12"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+    </row>
+    <row r="49" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="12"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+    </row>
+    <row r="50" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="12"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+    </row>
+    <row r="51" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="12"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+    </row>
+    <row r="52" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="12"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+    </row>
+    <row r="53" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="12"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+    </row>
+    <row r="54" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="12"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+    </row>
+    <row r="55" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="12"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+    </row>
+    <row r="56" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="12"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+    </row>
+    <row r="57" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="12"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+    </row>
+    <row r="58" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="12"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+    </row>
+    <row r="59" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="12"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+    </row>
+    <row r="60" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="12"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+    </row>
+    <row r="61" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="12"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+    </row>
+    <row r="62" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="12"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+    </row>
+    <row r="63" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="12"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+    </row>
+    <row r="64" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="12"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+    </row>
+    <row r="65" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="12"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+    </row>
+    <row r="66" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="12"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+    </row>
+    <row r="67" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="12"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+    </row>
+    <row r="68" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="12"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+    </row>
+    <row r="69" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="12"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+    </row>
+    <row r="70" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="12"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+    </row>
+    <row r="71" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="12"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+    </row>
+    <row r="72" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="12"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+    </row>
+    <row r="73" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="12"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+    </row>
+    <row r="74" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="12"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+    </row>
+    <row r="75" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="12"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+    </row>
+    <row r="76" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="12"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+    </row>
+    <row r="77" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="12"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
+    </row>
+    <row r="78" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="12"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+    </row>
+    <row r="79" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="12"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+    </row>
+    <row r="80" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="12"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+    </row>
+    <row r="81" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="12"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2933,11 +3238,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
